--- a/data/deleted_shifts.xlsx
+++ b/data/deleted_shifts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\UCU\ACS\doctor_matching_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55060D21-AD6D-466C-8C08-1E54E1417760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EC8A60-B1C3-44C1-B9FE-B50EADD9CC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Doctor</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Shift</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
     <t>Горічко І.В.</t>
   </si>
   <si>
@@ -46,6 +43,12 @@
   </si>
   <si>
     <t>2.1</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>4.1</t>
   </si>
 </sst>
 </file>
@@ -383,7 +386,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,26 +405,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
